--- a/spreadsheets/Ivern.xlsx
+++ b/spreadsheets/Ivern.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\1_special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46EA9CF-29C6-49D7-922D-6B966BFF61DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889DA0FD-BBAC-4D57-A41C-DEECF8872801}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
-    <sheet name="metadata (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="temp" sheetId="8" r:id="rId1"/>
     <sheet name="metadata" sheetId="1" r:id="rId2"/>
-    <sheet name="Jungle" sheetId="6" r:id="rId3"/>
+    <sheet name="metadata (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="Jungle" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -339,6 +340,21 @@
   </si>
   <si>
     <t>discord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentius and jamaican banana </t>
+  </si>
+  <si>
+    <t>https://na.op.gg/multi/query=jamicanbanana%2Cpentius</t>
+  </si>
+  <si>
+    <t>Follow Pentius and jamaican banana for educational and high elo content on support and Ivern!</t>
+  </si>
+  <si>
+    <t>Pentius and jamaican banana have both reached grandmaster and have thousands of Ivern games. They both also play support, but have continuously played Ivern since his release.</t>
+  </si>
+  <si>
+    <t>http://www.multitwitch.tv/jamicanbanana/pentiuslol</t>
   </si>
 </sst>
 </file>
@@ -430,6 +446,111 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E47F41-DEB2-4F46-AEF9-66E64CBCD274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="2857500"/>
+          <a:ext cx="5419725" cy="2296309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>245812</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF85E4A-BA54-40E0-9396-85EC7EB09B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572626" y="2836743"/>
+          <a:ext cx="7551486" cy="3221157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -484,111 +605,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5512B50B-0B71-4941-B441-8FC1A062D4BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9572626" y="2836743"/>
-          <a:ext cx="7551486" cy="3221157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>10309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E47F41-DEB2-4F46-AEF9-66E64CBCD274}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2838450" y="2857500"/>
-          <a:ext cx="5419725" cy="2296309"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>169743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>245812</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF85E4A-BA54-40E0-9396-85EC7EB09B2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,148 +935,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CC7042-17C7-4A03-8800-7A81CC546F96}">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C8ECC0-704B-4E42-A735-C448B2FCA21D}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="221.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{65DF98B0-01B5-49CC-868C-2422B18C0EE5}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{A1E4C0F7-65DD-4A07-8CAA-88D346B88568}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{C9435663-415F-4DFD-A34C-D2FD46CC214A}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{974179B9-2615-4F1C-A2A8-F2C8EEF745B1}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{A627CFA1-365D-49E3-8EEA-B4DA16860CF0}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{063C1A6C-E1DD-4A3F-9DA7-444771040D80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1069,7 +1038,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,11 +1180,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CC7042-17C7-4A03-8800-7A81CC546F96}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="221.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{65DF98B0-01B5-49CC-868C-2422B18C0EE5}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{A1E4C0F7-65DD-4A07-8CAA-88D346B88568}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{C9435663-415F-4DFD-A34C-D2FD46CC214A}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{974179B9-2615-4F1C-A2A8-F2C8EEF745B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1637B386-EF92-4D05-9F9D-7F0D57FE5347}">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/spreadsheets/Ivern.xlsx
+++ b/spreadsheets/Ivern.xlsx
@@ -5,18 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\1_special\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889DA0FD-BBAC-4D57-A41C-DEECF8872801}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E8E07-F4A0-49F3-BAC0-839B4D739F52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
-    <sheet name="temp" sheetId="8" r:id="rId1"/>
-    <sheet name="metadata" sheetId="1" r:id="rId2"/>
-    <sheet name="metadata (2)" sheetId="7" r:id="rId3"/>
-    <sheet name="Jungle" sheetId="6" r:id="rId4"/>
+    <sheet name="metadata" sheetId="8" r:id="rId1"/>
+    <sheet name="Jungle" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -54,21 +52,6 @@
     <t>portrait</t>
   </si>
   <si>
-    <t>Hey! Thank you so much for contributing.</t>
-  </si>
-  <si>
-    <t>Please don't change id/name (B1/B2) cells.</t>
-  </si>
-  <si>
-    <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Once you have filled this out, please change sheets at the bottom.</t>
-  </si>
-  <si>
     <t>Champion</t>
   </si>
   <si>
@@ -93,9 +76,6 @@
     <t>Please aim for comments to be between 1-3 sentences long.</t>
   </si>
   <si>
-    <t>Sample of what it will look like on the website</t>
-  </si>
-  <si>
     <t>description/bio</t>
   </si>
   <si>
@@ -222,33 +202,12 @@
     <t>extra message</t>
   </si>
   <si>
-    <t>Metadata guide</t>
-  </si>
-  <si>
     <t>For each champion, if you have any comments about the matchup, enter it into the comments column.</t>
   </si>
   <si>
-    <t>For contributor, enter the name you would like to be refered to as.</t>
-  </si>
-  <si>
-    <t>For socials, enter URLs for your desired links.</t>
-  </si>
-  <si>
-    <t>If you don't have a social, feel free to omit it.</t>
-  </si>
-  <si>
-    <t>If you have another link, add it to the bottom (for example, Facebook)</t>
-  </si>
-  <si>
     <t>Example comment: "Need to play safe until 6. Then, you can call for jungler to set up ganks with your ult."</t>
   </si>
   <si>
-    <t>Pentius</t>
-  </si>
-  <si>
-    <t>https://na.op.gg/summoner/userName=Pentius</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/channel/UChlGMdXXl04-cQlDE8oT0gA?view_as=subscriber</t>
   </si>
   <si>
@@ -300,36 +259,6 @@
     <t>warn team about early twitch gank. Counter gank him as much as possible and stop his snowball</t>
   </si>
   <si>
-    <t>jamican banana</t>
-  </si>
-  <si>
-    <t>https://twitter.com/JamicanBanana</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jamicanbanana</t>
-  </si>
-  <si>
-    <t>https://na.op.gg/summoner/userName=jamican%20banana</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCizbzttaT_cCZeodRFYzruw</t>
-  </si>
-  <si>
-    <t>Hi I'm jamican banana I'm a ivern one trick from release to s8 , Now I play Ivern as my secondary as I'm now a  Support Main but I still enjoy grinding ivern. I've been the top ivern since release being masters / Grandmasters top 500 since ivern release and maintain that rank since!</t>
-  </si>
-  <si>
-    <t>Follow jamican banana for high elo ivern content or support content.</t>
-  </si>
-  <si>
-    <t>Check out his YouTube channel and Twitch stream to find educational content for all player levels on Ivern and Support</t>
-  </si>
-  <si>
-    <t>Pentius is known for being one of the top rated Iverns in North America. He has developed heavy knowledge on Ivern over the past 3 years with over 1k games on the champion in high Diamond/Grandmaster tier. Also a high elo support player.</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/pentiuslol</t>
-  </si>
-  <si>
     <t>https://twitter.com/PentiusLOL</t>
   </si>
   <si>
@@ -348,13 +277,13 @@
     <t>https://na.op.gg/multi/query=jamicanbanana%2Cpentius</t>
   </si>
   <si>
-    <t>Follow Pentius and jamaican banana for educational and high elo content on support and Ivern!</t>
-  </si>
-  <si>
     <t>Pentius and jamaican banana have both reached grandmaster and have thousands of Ivern games. They both also play support, but have continuously played Ivern since his release.</t>
   </si>
   <si>
     <t>http://www.multitwitch.tv/jamicanbanana/pentiuslol</t>
+  </si>
+  <si>
+    <t>Follow Pentius and jamaican banana for educational and high elo content on support and Ivern! Follow jamaican banana on Twitter: https://twitter.com/JamicanBanana  and Youtube: https://www.youtube.com/channel/UCizbzttaT_cCZeodRFYzruw</t>
   </si>
 </sst>
 </file>
@@ -427,216 +356,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>10309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E47F41-DEB2-4F46-AEF9-66E64CBCD274}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2838450" y="2857500"/>
-          <a:ext cx="5419725" cy="2296309"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>169743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>245812</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF85E4A-BA54-40E0-9396-85EC7EB09B2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9572626" y="2836743"/>
-          <a:ext cx="7551486" cy="3221157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>10309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBA98AB-C255-493E-B0B6-7C4171CF291E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2838450" y="2857500"/>
-          <a:ext cx="5419725" cy="2296309"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>169743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>245812</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5512B50B-0B71-4941-B441-8FC1A062D4BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9572626" y="2836743"/>
-          <a:ext cx="7551486" cy="3221157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C8ECC0-704B-4E42-A735-C448B2FCA21D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,20 +688,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,17 +712,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1010,326 +735,36 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{A627CFA1-365D-49E3-8EEA-B4DA16860CF0}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{063C1A6C-E1DD-4A3F-9DA7-444771040D80}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{9CC8AD93-F86A-4B49-ABA6-8368687D804B}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{6268C400-BF3F-4232-9061-0D5356FCBB28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
-  <dimension ref="A1:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="252.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{E2C616D0-BFB2-4BF6-9BE4-A669BECEDD39}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{B6304EE7-3FA1-4E22-A53B-1435CEB310B7}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{176C56B3-C55A-476F-B3B5-B478AE020B69}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{69BC5503-B8A6-4A39-9C6E-9B1618297069}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CC7042-17C7-4A03-8800-7A81CC546F96}">
-  <dimension ref="A1:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="221.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{65DF98B0-01B5-49CC-868C-2422B18C0EE5}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{A1E4C0F7-65DD-4A07-8CAA-88D346B88568}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{C9435663-415F-4DFD-A34C-D2FD46CC214A}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{974179B9-2615-4F1C-A2A8-F2C8EEF745B1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1637B386-EF92-4D05-9F9D-7F0D57FE5347}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1341,96 +776,96 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1438,18 +873,18 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1457,29 +892,29 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1487,29 +922,29 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1517,7 +952,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1525,40 +960,40 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1566,18 +1001,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1585,18 +1020,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1604,29 +1039,29 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1634,7 +1069,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1642,7 +1077,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1650,7 +1085,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1658,7 +1093,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1666,7 +1101,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1674,18 +1109,18 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1693,7 +1128,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -1701,7 +1136,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1709,7 +1144,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1717,24 +1152,24 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/Ivern.xlsx
+++ b/spreadsheets/Ivern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E8E07-F4A0-49F3-BAC0-839B4D739F52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A4859C-9676-4849-BA14-F66E3BD8B533}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="30675" yWindow="1875" windowWidth="21525" windowHeight="11820" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="8" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>discord</t>
   </si>
   <si>
-    <t xml:space="preserve">Pentius and jamaican banana </t>
-  </si>
-  <si>
     <t>https://na.op.gg/multi/query=jamicanbanana%2Cpentius</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>Follow Pentius and jamaican banana for educational and high elo content on support and Ivern! Follow jamaican banana on Twitter: https://twitter.com/JamicanBanana  and Youtube: https://www.youtube.com/channel/UCizbzttaT_cCZeodRFYzruw</t>
+  </si>
+  <si>
+    <t>Pentius and jamaican banana</t>
   </si>
 </sst>
 </file>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C8ECC0-704B-4E42-A735-C448B2FCA21D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1637B386-EF92-4D05-9F9D-7F0D57FE5347}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
